--- a/dados.xlsx
+++ b/dados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="286">
   <si>
     <t>Variavel</t>
   </si>
@@ -763,28 +763,67 @@
     <t>ASCII</t>
   </si>
   <si>
-    <t>Error - Single3</t>
-  </si>
-  <si>
-    <t>Erro de Buffer</t>
-  </si>
-  <si>
-    <t>Smar</t>
-  </si>
-  <si>
-    <t>TT301</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>30</t>
+  </si>
+  <si>
+    <t>00</t>
+  </si>
+  <si>
+    <t>3E</t>
+  </si>
+  <si>
+    <t>02</t>
+  </si>
+  <si>
+    <t>05</t>
+  </si>
+  <si>
+    <t>04</t>
+  </si>
+  <si>
+    <t>01</t>
+  </si>
+  <si>
+    <t>1F00000010</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>514CF0C60820</t>
+  </si>
+  <si>
+    <t>34510910F4A010581414D405481515481820820820820820</t>
+  </si>
+  <si>
+    <t>505350152054552060820820</t>
+  </si>
+  <si>
+    <t>130879</t>
+  </si>
+  <si>
+    <t>00FBC6</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>FB</t>
+  </si>
+  <si>
+    <t>00000000</t>
+  </si>
+  <si>
+    <t>000000</t>
+  </si>
+  <si>
+    <t>@(percent_of_range / 100) * (upper_range_value - lower_range_value) + lower_range_value</t>
+  </si>
+  <si>
+    <t>44548000</t>
+  </si>
+  <si>
+    <t>C3480000</t>
   </si>
   <si>
     <t>Type Invalida</t>
@@ -793,52 +832,16 @@
     <t>030102</t>
   </si>
   <si>
-    <t>128</t>
-  </si>
-  <si>
-    <t>Medidor de Temperatura</t>
-  </si>
-  <si>
-    <t>Temperatura</t>
-  </si>
-  <si>
-    <t>No Command-Specific Errors</t>
+    <t>LD301</t>
+  </si>
+  <si>
+    <t>Medidor de Pressao</t>
+  </si>
+  <si>
+    <t>Pressao</t>
   </si>
   <si>
     <t>000</t>
-  </si>
-  <si>
-    <t>Bell 202 Current</t>
-  </si>
-  <si>
-    <t>Degrees Celsius</t>
-  </si>
-  <si>
-    <t>Linear Equation</t>
-  </si>
-  <si>
-    <t>Stainless Steel 316</t>
-  </si>
-  <si>
-    <t>Multi-Sensor Field Device</t>
-  </si>
-  <si>
-    <t>Analog Channel 0</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>00</t>
-  </si>
-  <si>
-    <t>LD301</t>
-  </si>
-  <si>
-    <t>Medidor de Pressao</t>
-  </si>
-  <si>
-    <t>Pressao</t>
   </si>
   <si>
     <t>Medidor de Nível</t>
@@ -875,9 +878,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -930,12 +930,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1285,19 +1284,19 @@
         <v>249</v>
       </c>
       <c r="F2" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G2" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H2" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I2" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J2" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1317,19 +1316,19 @@
         <v>250</v>
       </c>
       <c r="F3" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G3" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H3" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I3" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J3" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1345,20 +1344,23 @@
       <c r="D4">
         <v>152</v>
       </c>
+      <c r="E4" t="s">
+        <v>250</v>
+      </c>
       <c r="F4" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G4" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H4" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I4" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J4" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1378,19 +1380,19 @@
         <v>251</v>
       </c>
       <c r="F5" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G5" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H5" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I5" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J5" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1410,19 +1412,19 @@
         <v>252</v>
       </c>
       <c r="F6" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G6" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H6" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I6" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J6" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1485,7 +1487,7 @@
         <v>157</v>
       </c>
       <c r="E9" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="F9">
         <v>48</v>
@@ -1517,7 +1519,7 @@
         <v>158</v>
       </c>
       <c r="E10" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F10">
         <v>4</v>
@@ -1549,7 +1551,7 @@
         <v>159</v>
       </c>
       <c r="E11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1581,22 +1583,22 @@
         <v>160</v>
       </c>
       <c r="E12" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F12" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G12" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H12" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I12" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J12" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1613,22 +1615,22 @@
         <v>161</v>
       </c>
       <c r="E13" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="F13" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="G13" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="H13" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="I13" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="J13" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -1645,7 +1647,7 @@
         <v>162</v>
       </c>
       <c r="E14" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F14">
         <v>128</v>
@@ -1677,7 +1679,7 @@
         <v>163</v>
       </c>
       <c r="E15" t="s">
-        <v>252</v>
+        <v>258</v>
       </c>
       <c r="F15" t="s">
         <v>272</v>
@@ -1689,10 +1691,10 @@
         <v>272</v>
       </c>
       <c r="I15" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="J15" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -1709,22 +1711,22 @@
         <v>164</v>
       </c>
       <c r="E16" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="F16" t="s">
         <v>273</v>
       </c>
       <c r="G16" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H16" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I16" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="J16" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -1741,22 +1743,22 @@
         <v>165</v>
       </c>
       <c r="E17" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F17" t="s">
         <v>274</v>
       </c>
       <c r="G17" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H17" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I17" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="J17" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1772,8 +1774,8 @@
       <c r="D18">
         <v>166</v>
       </c>
-      <c r="E18" s="2">
-        <v>44427</v>
+      <c r="E18" t="s">
+        <v>261</v>
       </c>
       <c r="F18">
         <v>44427</v>
@@ -1805,22 +1807,22 @@
         <v>167</v>
       </c>
       <c r="E19" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F19" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G19" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H19" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I19" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J19" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:10">
@@ -1837,22 +1839,22 @@
         <v>168</v>
       </c>
       <c r="E20" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F20" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G20" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H20" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I20" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J20" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -1869,22 +1871,22 @@
         <v>169</v>
       </c>
       <c r="E21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="F21" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="G21" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="H21" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="I21" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="J21" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1901,22 +1903,22 @@
         <v>171</v>
       </c>
       <c r="E22" t="s">
-        <v>264</v>
+        <v>250</v>
       </c>
       <c r="F22" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G22" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H22" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I22" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J22" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -1933,22 +1935,22 @@
         <v>2025</v>
       </c>
       <c r="E23" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="F23" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G23" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H23" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I23" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J23" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -1965,22 +1967,22 @@
         <v>2026</v>
       </c>
       <c r="E24" t="s">
-        <v>266</v>
+        <v>250</v>
       </c>
       <c r="F24" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G24" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H24" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I24" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J24" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="25" spans="1:10">
@@ -1996,20 +1998,23 @@
       <c r="D25">
         <v>2027</v>
       </c>
+      <c r="E25" t="s">
+        <v>264</v>
+      </c>
       <c r="F25" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G25" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H25" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I25" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J25" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -2026,22 +2031,22 @@
         <v>2028</v>
       </c>
       <c r="E26" t="s">
-        <v>267</v>
+        <v>252</v>
       </c>
       <c r="F26" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G26" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H26" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I26" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J26" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -2071,20 +2076,23 @@
       <c r="D28">
         <v>2030</v>
       </c>
+      <c r="E28" t="s">
+        <v>264</v>
+      </c>
       <c r="F28" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G28" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H28" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I28" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J28" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -2114,20 +2122,23 @@
       <c r="D30">
         <v>2032</v>
       </c>
+      <c r="E30" t="s">
+        <v>264</v>
+      </c>
       <c r="F30" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G30" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H30" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I30" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J30" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="31" spans="1:10">
@@ -2158,22 +2169,22 @@
         <v>2034</v>
       </c>
       <c r="E32" t="s">
-        <v>268</v>
+        <v>255</v>
       </c>
       <c r="F32" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G32" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H32" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I32" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J32" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" spans="1:10">
@@ -2189,20 +2200,23 @@
       <c r="D33">
         <v>2035</v>
       </c>
+      <c r="E33" t="s">
+        <v>250</v>
+      </c>
       <c r="F33" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G33" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H33" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I33" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J33" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="34" spans="1:10">
@@ -2219,22 +2233,22 @@
         <v>2036</v>
       </c>
       <c r="E34" t="s">
-        <v>269</v>
+        <v>250</v>
       </c>
       <c r="F34" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G34" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H34" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I34" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J34" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2363,22 +2377,22 @@
         <v>4093</v>
       </c>
       <c r="E43" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F43" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G43" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H43" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I43" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J43" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="44" spans="1:10">
@@ -2395,22 +2409,22 @@
         <v>4095</v>
       </c>
       <c r="E44" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F44" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G44" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H44" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I44" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J44" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="45" spans="1:10">
@@ -2427,22 +2441,22 @@
         <v>5020</v>
       </c>
       <c r="E45" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F45" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G45" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H45" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I45" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J45" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="46" spans="1:10">
@@ -2459,22 +2473,22 @@
         <v>16384</v>
       </c>
       <c r="E46" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F46" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G46" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H46" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I46" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J46" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47" spans="1:10">
@@ -2491,22 +2505,22 @@
         <v>16385</v>
       </c>
       <c r="E47" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F47" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G47" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H47" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I47" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J47" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="48" spans="1:10">
@@ -2523,22 +2537,22 @@
         <v>16391</v>
       </c>
       <c r="E48" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F48" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G48" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H48" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I48" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J48" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="49" spans="1:10">
@@ -2554,8 +2568,8 @@
       <c r="D49">
         <v>16392</v>
       </c>
-      <c r="E49">
-        <v>5.877471754111438E-39</v>
+      <c r="E49" t="s">
+        <v>265</v>
       </c>
       <c r="F49">
         <v>5.877471754111438E-39</v>
@@ -2587,22 +2601,22 @@
         <v>16393</v>
       </c>
       <c r="E50" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F50" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G50" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H50" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I50" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J50" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51" spans="1:10">
@@ -2689,22 +2703,22 @@
         <v>16399</v>
       </c>
       <c r="E56" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="F56" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="G56" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="H56" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="I56" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="J56" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
     </row>
     <row r="57" spans="1:10">
@@ -2763,22 +2777,22 @@
         <v>16403</v>
       </c>
       <c r="E60" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F60" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G60" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H60" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I60" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J60" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="61" spans="1:10">
@@ -2795,22 +2809,22 @@
         <v>16404</v>
       </c>
       <c r="E61" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F61" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G61" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H61" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I61" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J61" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="62" spans="1:10">
@@ -3065,7 +3079,7 @@
         <v>16423</v>
       </c>
       <c r="E79" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="F79">
         <v>0</v>
@@ -3097,22 +3111,22 @@
         <v>16424</v>
       </c>
       <c r="E80" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F80" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G80" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H80" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I80" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J80" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="81" spans="1:10">
@@ -3199,22 +3213,22 @@
         <v>16436</v>
       </c>
       <c r="E86" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F86" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G86" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H86" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I86" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J86" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -3231,22 +3245,22 @@
         <v>16437</v>
       </c>
       <c r="E87" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F87" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G87" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H87" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I87" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J87" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="88" spans="1:10">
@@ -3263,22 +3277,22 @@
         <v>16438</v>
       </c>
       <c r="E88" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F88" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G88" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H88" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I88" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J88" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="89" spans="1:10">
@@ -3295,22 +3309,22 @@
         <v>16443</v>
       </c>
       <c r="E89" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F89" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G89" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H89" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I89" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J89" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="90" spans="1:10">
@@ -3326,8 +3340,8 @@
       <c r="D90">
         <v>16444</v>
       </c>
-      <c r="E90">
-        <v>83.45</v>
+      <c r="E90" t="s">
+        <v>267</v>
       </c>
       <c r="F90">
         <v>83.45</v>
@@ -3358,8 +3372,8 @@
       <c r="D91">
         <v>16445</v>
       </c>
-      <c r="E91">
-        <v>5.877471754111438E-39</v>
+      <c r="E91" t="s">
+        <v>265</v>
       </c>
       <c r="F91">
         <v>5.877471754111438E-39</v>
@@ -3390,8 +3404,8 @@
       <c r="D92">
         <v>16446</v>
       </c>
-      <c r="E92">
-        <v>5.877471754111438E-39</v>
+      <c r="E92" t="s">
+        <v>250</v>
       </c>
       <c r="F92">
         <v>5.877471754111438E-39</v>
@@ -3423,22 +3437,22 @@
         <v>16447</v>
       </c>
       <c r="E93" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F93" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G93" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H93" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I93" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J93" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="94" spans="1:10">
@@ -3455,22 +3469,22 @@
         <v>16448</v>
       </c>
       <c r="E94" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F94" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G94" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H94" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I94" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J94" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="95" spans="1:10">
@@ -3486,8 +3500,8 @@
       <c r="D95">
         <v>16449</v>
       </c>
-      <c r="E95">
-        <v>5.877471754111438E-39</v>
+      <c r="E95" t="s">
+        <v>250</v>
       </c>
       <c r="F95">
         <v>5.877471754111438E-39</v>
@@ -3518,8 +3532,8 @@
       <c r="D96">
         <v>16452</v>
       </c>
-      <c r="E96">
-        <v>5.877471754111438E-39</v>
+      <c r="E96" t="s">
+        <v>265</v>
       </c>
       <c r="F96">
         <v>5.877471754111438E-39</v>
@@ -3550,8 +3564,8 @@
       <c r="D97">
         <v>16453</v>
       </c>
-      <c r="E97">
-        <v>5.877471754111438E-39</v>
+      <c r="E97" t="s">
+        <v>265</v>
       </c>
       <c r="F97">
         <v>5.877471754111438E-39</v>
@@ -3582,8 +3596,8 @@
       <c r="D98">
         <v>16454</v>
       </c>
-      <c r="E98">
-        <v>5.877471754111438E-39</v>
+      <c r="E98" t="s">
+        <v>265</v>
       </c>
       <c r="F98">
         <v>5.877471754111438E-39</v>
@@ -3614,8 +3628,8 @@
       <c r="D99">
         <v>16463</v>
       </c>
-      <c r="E99">
-        <v>5.877471754111438E-39</v>
+      <c r="E99" t="s">
+        <v>265</v>
       </c>
       <c r="F99">
         <v>5.877471754111438E-39</v>
@@ -3646,8 +3660,8 @@
       <c r="D100">
         <v>16464</v>
       </c>
-      <c r="E100">
-        <v>5.877471754111438E-39</v>
+      <c r="E100" t="s">
+        <v>265</v>
       </c>
       <c r="F100">
         <v>5.877471754111438E-39</v>
@@ -3678,8 +3692,8 @@
       <c r="D101">
         <v>16465</v>
       </c>
-      <c r="E101">
-        <v>5.877471754111438E-39</v>
+      <c r="E101" t="s">
+        <v>265</v>
       </c>
       <c r="F101">
         <v>5.877471754111438E-39</v>
@@ -3710,8 +3724,8 @@
       <c r="D102">
         <v>16468</v>
       </c>
-      <c r="E102">
-        <v>5.877471754111438E-39</v>
+      <c r="E102" t="s">
+        <v>265</v>
       </c>
       <c r="F102">
         <v>5.877471754111438E-39</v>
@@ -3742,8 +3756,8 @@
       <c r="D103">
         <v>16469</v>
       </c>
-      <c r="E103">
-        <v>5.877471754111438E-39</v>
+      <c r="E103" t="s">
+        <v>265</v>
       </c>
       <c r="F103">
         <v>5.877471754111438E-39</v>
@@ -3774,8 +3788,8 @@
       <c r="D104">
         <v>16472</v>
       </c>
-      <c r="E104">
-        <v>5.877471754111438E-39</v>
+      <c r="E104" t="s">
+        <v>265</v>
       </c>
       <c r="F104">
         <v>5.877471754111438E-39</v>
@@ -3807,22 +3821,22 @@
         <v>16473</v>
       </c>
       <c r="E105" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F105" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G105" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H105" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I105" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J105" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="106" spans="1:10">
@@ -3839,22 +3853,22 @@
         <v>16474</v>
       </c>
       <c r="E106" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F106" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G106" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H106" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I106" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J106" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="107" spans="1:10">
@@ -3899,7 +3913,7 @@
         <v>16485</v>
       </c>
       <c r="E109" t="s">
-        <v>270</v>
+        <v>250</v>
       </c>
       <c r="F109">
         <v>0</v>
@@ -3930,8 +3944,8 @@
       <c r="D110">
         <v>16486</v>
       </c>
-      <c r="E110">
-        <v>850</v>
+      <c r="E110" t="s">
+        <v>268</v>
       </c>
       <c r="F110">
         <v>850</v>
@@ -3962,8 +3976,8 @@
       <c r="D111">
         <v>16487</v>
       </c>
-      <c r="E111">
-        <v>-200</v>
+      <c r="E111" t="s">
+        <v>269</v>
       </c>
       <c r="F111">
         <v>-200</v>
@@ -4149,22 +4163,22 @@
         <v>16505</v>
       </c>
       <c r="E123" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F123" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G123" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H123" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I123" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J123" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="124" spans="1:10">
@@ -4181,22 +4195,22 @@
         <v>16506</v>
       </c>
       <c r="E124" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F124" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G124" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H124" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I124" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J124" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="125" spans="1:10">
@@ -4381,22 +4395,22 @@
         <v>16523</v>
       </c>
       <c r="E137" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F137" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G137" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H137" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I137" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J137" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="138" spans="1:10">
@@ -4413,22 +4427,22 @@
         <v>16524</v>
       </c>
       <c r="E138" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F138" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G138" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H138" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I138" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J138" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="139" spans="1:10">
@@ -4445,22 +4459,22 @@
         <v>16527</v>
       </c>
       <c r="E139" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F139" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G139" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H139" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I139" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J139" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="140" spans="1:10">
@@ -4715,22 +4729,22 @@
         <v>16554</v>
       </c>
       <c r="E157" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F157" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G157" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H157" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I157" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J157" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="158" spans="1:10">
@@ -4914,8 +4928,8 @@
       <c r="D170">
         <v>16572</v>
       </c>
-      <c r="E170">
-        <v>5.877471754111438E-39</v>
+      <c r="E170" t="s">
+        <v>265</v>
       </c>
       <c r="F170">
         <v>5.877471754111438E-39</v>
@@ -4988,8 +5002,8 @@
       <c r="D174">
         <v>16580</v>
       </c>
-      <c r="E174">
-        <v>5.877471754111438E-39</v>
+      <c r="E174" t="s">
+        <v>265</v>
       </c>
       <c r="F174">
         <v>5.877471754111438E-39</v>
@@ -5035,22 +5049,22 @@
         <v>16582</v>
       </c>
       <c r="E176" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F176" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G176" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H176" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I176" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J176" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="177" spans="1:10">
@@ -5066,8 +5080,8 @@
       <c r="D177">
         <v>16583</v>
       </c>
-      <c r="E177">
-        <v>5.877471754111438E-39</v>
+      <c r="E177" t="s">
+        <v>265</v>
       </c>
       <c r="F177">
         <v>5.877471754111438E-39</v>
@@ -5098,8 +5112,8 @@
       <c r="D178">
         <v>16584</v>
       </c>
-      <c r="E178">
-        <v>5.877471754111438E-39</v>
+      <c r="E178" t="s">
+        <v>265</v>
       </c>
       <c r="F178">
         <v>5.877471754111438E-39</v>
@@ -5131,22 +5145,22 @@
         <v>16585</v>
       </c>
       <c r="E179" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F179" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G179" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H179" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I179" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J179" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="180" spans="1:10">
@@ -5163,22 +5177,22 @@
         <v>16586</v>
       </c>
       <c r="E180" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F180" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G180" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H180" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I180" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J180" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="181" spans="1:10">
@@ -5195,22 +5209,22 @@
         <v>16587</v>
       </c>
       <c r="E181" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="F181" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="G181" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="H181" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="I181" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="J181" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
     <row r="182" spans="1:10">
@@ -5665,8 +5679,11 @@
       <c r="A214" t="s">
         <v>222</v>
       </c>
+      <c r="B214" t="s">
+        <v>228</v>
+      </c>
       <c r="E214" t="s">
-        <v>271</v>
+        <v>250</v>
       </c>
     </row>
   </sheetData>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6544,7 +6544,11 @@
       <c r="C212" t="n">
         <v>4</v>
       </c>
-      <c r="D212" t="inlineStr"/>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="E212" t="inlineStr"/>
       <c r="F212" t="inlineStr"/>
       <c r="G212" t="inlineStr"/>

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -1416,7 +1416,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>41f00000</t>
+          <t>42b40000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1496,7 +1496,7 @@
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>@(percent_of_range*0.16)+4</t>
+          <t>40f00000</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">

--- a/dados.xlsx
+++ b/dados.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="154">
   <si>
     <t>NAME</t>
   </si>
@@ -451,28 +451,22 @@
     <t>4121534C13E0820820820820</t>
   </si>
   <si>
-    <t>42700000</t>
-  </si>
-  <si>
-    <t>41af3333</t>
-  </si>
-  <si>
-    <t>40f00000</t>
+    <t>41a00000</t>
+  </si>
+  <si>
+    <t>199CF0C60820</t>
+  </si>
+  <si>
+    <t>40F4C90C93CE0443D280416058131654C060820820820820</t>
+  </si>
+  <si>
+    <t>40F4C90C93CE0443D2820820</t>
+  </si>
+  <si>
+    <t>41200000</t>
   </si>
   <si>
     <t>07</t>
-  </si>
-  <si>
-    <t>199CF0C60820</t>
-  </si>
-  <si>
-    <t>40F4C90C93CE0443D280416058131654C060820820820820</t>
-  </si>
-  <si>
-    <t>40F4C90C93CE0443D2820820</t>
-  </si>
-  <si>
-    <t>41be7ae1</t>
   </si>
   <si>
     <t>114CF0C60820</t>
@@ -946,7 +940,7 @@
         <v>141</v>
       </c>
       <c r="H4" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1018,7 +1012,7 @@
         <v>120</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G7" t="s">
         <v>118</v>
@@ -1044,7 +1038,7 @@
         <v>122</v>
       </c>
       <c r="F8" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G8" t="s">
         <v>122</v>
@@ -1070,7 +1064,7 @@
         <v>123</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="G9" t="s">
         <v>123</v>
@@ -1096,10 +1090,10 @@
         <v>128</v>
       </c>
       <c r="F10" t="s">
-        <v>148</v>
+        <v>120</v>
       </c>
       <c r="G10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="H10" t="s">
         <v>117</v>
@@ -1330,13 +1324,13 @@
         <v>142</v>
       </c>
       <c r="F19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="G19" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H19" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1356,13 +1350,13 @@
         <v>143</v>
       </c>
       <c r="F20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G20" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H20" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1382,13 +1376,13 @@
         <v>144</v>
       </c>
       <c r="F21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="G21" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="H21" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1486,10 +1480,10 @@
         <v>145</v>
       </c>
       <c r="F25" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="G25" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="H25" t="s">
         <v>140</v>
@@ -1509,10 +1503,10 @@
         <v>137</v>
       </c>
       <c r="E26" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F26" t="s">
-        <v>152</v>
+        <v>137</v>
       </c>
       <c r="G26" t="s">
         <v>137</v>
@@ -1535,7 +1529,7 @@
         <v>138</v>
       </c>
       <c r="E27" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="F27" t="s">
         <v>138</v>
